--- a/biology/Microbiologie/Calpionellidae/Calpionellidae.xlsx
+++ b/biology/Microbiologie/Calpionellidae/Calpionellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Calpionellidae sont une famille fossile de Ciliés de la classe des Oligotrichea et de l’ordre des Oligotrichida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Calpionella, dérivé du grec ancien καλπιον / kalpion, « petit vase », en référence à la forme de cet organisme fossile, le suffixe latin -ella, petit, renforçant l'idée de la petitesse.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est uniquement composée d'espèces fossiles[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est uniquement composée d'espèces fossiles.
 </t>
         </is>
       </c>
@@ -600,9 +618,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (27 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (27 septembre 2022) :
 † Amphorellina Colom, 1948
 † Baranella Nagy, 1989
 † Borzaites Grün &amp; Blau, 2001
@@ -657,9 +677,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Calpionellidae[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Calpionellidae.
 </t>
         </is>
       </c>
